--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1334,14 +1334,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60406-2025</t>
+          <t>A 1697-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45995.43050925926</v>
+        <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,22 +1353,17 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1383,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1393,290 +1388,295 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Lunglav
+Bårdlav</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1697-2023 artfynd.xlsx", "A 1697-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1697-2023 karta.png", "A 1697-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1697-2023 FSC-klagomål.docx", "A 1697-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1697-2023 FSC-klagomål mail.docx", "A 1697-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1697-2023 tillsynsbegäran.docx", "A 1697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1697-2023 tillsynsbegäran mail.docx", "A 1697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 30067-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Åkergroda
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30055-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Klasefibbla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 60406-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45995.43050925926</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Björksplintborre
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60406-2025 artfynd.xlsx", "A 60406-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60406-2025 karta.png", "A 60406-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60406-2025 FSC-klagomål.docx", "A 60406-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60406-2025 FSC-klagomål mail.docx", "A 60406-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60406-2025 tillsynsbegäran.docx", "A 60406-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60406-2025 tillsynsbegäran mail.docx", "A 60406-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 1697-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44938</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Lunglav
-Bårdlav</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1697-2023 artfynd.xlsx", "A 1697-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1697-2023 karta.png", "A 1697-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1697-2023 FSC-klagomål.docx", "A 1697-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1697-2023 FSC-klagomål mail.docx", "A 1697-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1697-2023 tillsynsbegäran.docx", "A 1697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1697-2023 tillsynsbegäran mail.docx", "A 1697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30055-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 30067-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
         <v/>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,14 +1947,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44938</v>
+        <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,31 +2001,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2117,14 +2117,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18100-2022</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44684</v>
+        <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2171,45 +2171,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 18100-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45842</v>
+        <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,31 +2256,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3100,14 +3100,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>44915</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3119,13 +3119,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3162,14 +3157,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 21285-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>45062</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3182,7 +3177,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3219,14 +3214,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3238,8 +3233,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 15690-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44846</v>
+        <v>45020</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44395</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44812</v>
+        <v>45491</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,8 +3466,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3504,14 +3509,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45924</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3524,7 +3529,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3561,14 +3566,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3581,7 +3586,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>11.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3618,14 +3623,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>45029</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3638,7 +3643,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3675,14 +3680,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44550</v>
+        <v>45924</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3695,7 +3700,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3732,14 +3737,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45491</v>
+        <v>44846</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3752,7 +3757,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3796,7 +3801,7 @@
         <v>45938.3790162037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3851,14 +3856,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44664</v>
+        <v>44700</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3870,8 +3875,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>11.2</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3915,7 +3925,7 @@
         <v>45945.36526620371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,14 +3980,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44916</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3990,7 +4000,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4027,14 +4037,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45020</v>
+        <v>44844</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4047,7 +4057,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4084,14 +4094,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44259</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4104,7 +4114,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4141,14 +4151,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>45020</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4161,7 +4171,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4205,7 +4215,7 @@
         <v>45965</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,14 +4265,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 21285-2023</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45062</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4275,7 +4285,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4312,14 +4322,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15690-2023</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45020</v>
+        <v>44979</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4332,7 +4342,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4369,14 +4379,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,13 +4398,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4431,14 +4436,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44389</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4461,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4493,14 +4498,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44700</v>
+        <v>44812</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4512,13 +4517,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44599</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44915</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>44915</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45530</v>
+        <v>45462</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,8 +4802,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4840,14 +4845,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44979</v>
+        <v>45530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4897,14 +4902,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45462</v>
+        <v>45495</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,13 +4921,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4959,14 +4959,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45029</v>
+        <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4978,8 +4978,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5016,14 +5021,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45495</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5036,7 +5041,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5073,14 +5078,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5092,13 +5097,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5135,14 +5135,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45113</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5197,14 +5197,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44844</v>
+        <v>44599</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5254,14 +5254,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>44395</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5311,14 +5311,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44915</v>
+        <v>44259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5368,14 +5368,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>45406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5425,14 +5425,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45406</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44915</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>45062</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>45020</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>45740.58534722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>45491</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>45646.33262731481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44550.61508101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>45029</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45924</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44846</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>45938.3790162037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44700</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>45945.36526620371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>45355.49099537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44844</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44586.57239583333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>45020</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>45965</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>44550.5162037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>44979</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44859.43993055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44812</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45376.45421296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45406.56984953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45481.47731481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44915</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45462</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45495</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45406.56561342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45678.57962962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44599</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44395</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45376.47072916666</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44915</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>45062</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>45020</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>45740.58534722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>45491</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>45646.33262731481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44550.61508101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>45029</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45924</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44846</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>45938.3790162037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44700</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>45945.36526620371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>45355.49099537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44844</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44586.57239583333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>45020</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>45965</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>44550.5162037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>44979</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44859.43993055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44812</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45376.45421296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45406.56984953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45481.47731481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44915</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45462</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45495</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45406.56561342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45678.57962962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44599</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44395</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45376.47072916666</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,14 +1420,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30067-2025</t>
+          <t>A 30055-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>11.9</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1474,118 +1474,118 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Klasefibbla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30067-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Åkergroda
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30055-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
         <v/>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,14 +1772,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 14214-2025</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45740.58291666667</v>
+        <v>45842</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,19 +1792,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1816,55 +1816,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 14214-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45078</v>
+        <v>45740.58291666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,26 +1876,21 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -1906,55 +1901,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45842</v>
+        <v>45078</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,8 +1961,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,45 +2001,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 3726-2022</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44586</v>
+        <v>44938</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>17.1</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2086,45 +2086,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 3726-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44938</v>
+        <v>44586</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>17.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2171,31 +2171,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3062,8 +3062,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3100,14 +3105,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44915</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3120,7 +3125,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3157,14 +3162,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21285-2023</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45062</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3177,7 +3182,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3214,14 +3219,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45113</v>
+        <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3233,13 +3238,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15690-2023</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45020</v>
+        <v>44395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>44812</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45491</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>44550</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,13 +3466,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3509,14 +3504,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>45491</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3529,7 +3524,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3573,7 +3568,7 @@
         <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3623,14 +3618,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45029</v>
+        <v>44916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3643,7 +3638,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3680,14 +3675,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45924</v>
+        <v>45020</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3700,7 +3695,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3737,14 +3732,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44846</v>
+        <v>44259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3757,7 +3752,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3794,14 +3789,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3813,13 +3808,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3856,14 +3846,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 21285-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44700</v>
+        <v>45062</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3875,13 +3865,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3918,14 +3903,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>45924</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,13 +3922,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3980,14 +3960,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3999,8 +3979,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4037,14 +4022,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44844</v>
+        <v>44389</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4056,8 +4041,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4094,14 +4084,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,8 +4103,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4151,14 +4146,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45020</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4170,8 +4165,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4208,14 +4208,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45965</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>44550.5162037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4322,14 +4322,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44979</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4379,14 +4379,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44550</v>
+        <v>45965</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4436,14 +4436,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 15690-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>45020</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4455,13 +4455,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4498,14 +4493,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44812</v>
+        <v>44700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,8 +4512,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>44599</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>44915</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44915</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45462</v>
+        <v>45530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,13 +4802,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4845,14 +4840,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45530</v>
+        <v>44979</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,14 +4897,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45495</v>
+        <v>45462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4921,8 +4916,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4959,14 +4959,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44389</v>
+        <v>45029</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4978,13 +4978,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5021,14 +5016,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>45495</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5041,7 +5036,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5078,14 +5073,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44916</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5097,8 +5092,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5135,14 +5135,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5197,14 +5197,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44599</v>
+        <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5254,14 +5254,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44395</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5311,14 +5311,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44259</v>
+        <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5368,14 +5368,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45406</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5425,14 +5425,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>45406</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,14 +1420,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30055-2025</t>
+          <t>A 30067-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>11.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1474,118 +1474,118 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Åkergroda
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30055-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Klasefibbla
 Blåsippa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30067-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
         <v/>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,14 +1772,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 14214-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45842</v>
+        <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,20 +1792,20 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -1816,55 +1816,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 14214-2025</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45740.58291666667</v>
+        <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,20 +1876,25 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1901,55 +1906,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45078</v>
+        <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1961,13 +1966,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,45 +2001,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 3726-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44938</v>
+        <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>17.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2086,45 +2086,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 3726-2022</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44586</v>
+        <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>17.1</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2171,31 +2171,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3062,13 +3062,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3105,14 +3100,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>44915</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3125,7 +3120,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3162,14 +3157,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>44599</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3182,7 +3177,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3219,14 +3214,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 21285-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44846</v>
+        <v>45062</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3239,7 +3234,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3283,7 +3278,7 @@
         <v>44395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3333,14 +3328,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44812</v>
+        <v>45113</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3352,8 +3347,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>44259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 15690-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44550</v>
+        <v>45020</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45491</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44664</v>
+        <v>45491</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>11.2</v>
+        <v>0.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44916</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3637,8 +3637,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3675,14 +3680,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45020</v>
+        <v>45406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3695,7 +3700,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3732,14 +3737,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44259</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3752,7 +3757,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3789,14 +3794,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3809,7 +3814,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3846,14 +3851,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21285-2023</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45062</v>
+        <v>44664</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3866,7 +3871,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>11.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3903,14 +3908,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45924</v>
+        <v>45029</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3960,14 +3965,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>45924</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3979,13 +3984,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4022,14 +4022,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44389</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4084,14 +4084,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>44846</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,13 +4103,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4146,14 +4141,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>44700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4166,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4208,14 +4203,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4223,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4265,14 +4260,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4284,8 +4279,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4322,14 +4322,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>44844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4379,14 +4379,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45965</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4436,14 +4436,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15690-2023</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
         <v>45020</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4493,14 +4493,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44700</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4512,13 +4512,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4555,14 +4550,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44599</v>
+        <v>45965</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4575,7 +4570,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4612,14 +4607,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44915</v>
+        <v>44979</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4632,7 +4627,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4669,14 +4664,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>44550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4689,7 +4684,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4726,14 +4721,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,8 +4740,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45530</v>
+        <v>44812</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4840,14 +4840,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44979</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45462</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,13 +4916,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4959,14 +4954,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45029</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4979,7 +4974,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5016,14 +5011,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45495</v>
+        <v>44915</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5036,7 +5031,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5073,14 +5068,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>45462</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5098,7 +5093,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5135,14 +5130,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45113</v>
+        <v>45530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5154,13 +5149,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5197,14 +5187,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44844</v>
+        <v>45495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5207,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5254,14 +5244,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>44389</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,8 +5263,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5311,14 +5306,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44915</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5331,7 +5326,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5368,14 +5363,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>44916</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5388,7 +5383,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5425,14 +5420,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45406</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5444,8 +5439,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,14 +869,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 60416-2025</t>
+          <t>A 24599-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45995.45151620371</v>
+        <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -888,22 +888,17 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -918,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -927,6 +922,101 @@
         <v>6</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Almsnabbvinge
+Svartpälsbi
+Igelkottsröksvamp
+Sotriska
+Vanlig groda
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 24599-2022 artfynd.xlsx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 24599-2022 karta.png", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 24599-2022 FSC-klagomål.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 24599-2022 FSC-klagomål mail.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 24599-2022 tillsynsbegäran.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 24599-2022 tillsynsbegäran mail.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 60416-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45995.45151620371</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Entita
 Grön aspvedbock
@@ -936,122 +1026,32 @@
 Gröngöling</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60416-2025 artfynd.xlsx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60416-2025 karta.png", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60416-2025 FSC-klagomål.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60416-2025 FSC-klagomål mail.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60416-2025 tillsynsbegäran.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60416-2025 tillsynsbegäran mail.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/fåglar/A 60416-2025 prioriterade fågelarter.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 24599-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44727</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Almsnabbvinge
-Svartpälsbi
-Igelkottsröksvamp
-Sotriska
-Vanlig groda
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 24599-2022 artfynd.xlsx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 24599-2022 karta.png", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 24599-2022 FSC-klagomål.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 24599-2022 FSC-klagomål mail.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 24599-2022 tillsynsbegäran.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 24599-2022 tillsynsbegäran mail.docx", "A 24599-2022")</f>
         <v/>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,14 +1420,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30067-2025</t>
+          <t>A 30055-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>11.9</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1474,118 +1474,118 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Klasefibbla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30067-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Åkergroda
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30055-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
         <v/>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,14 +1772,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 14214-2025</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45740.58291666667</v>
+        <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,20 +1791,25 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1816,55 +1821,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45078</v>
+        <v>44938</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,13 +1881,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1916,45 +1916,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 3726-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45842</v>
+        <v>44586</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>17.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,45 +2001,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 3726-2022</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44586</v>
+        <v>45842</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>17.1</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2086,45 +2086,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 18100-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44938</v>
+        <v>44684</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2171,45 +2171,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18100-2022</t>
+          <t>A 14214-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44684</v>
+        <v>45740.58291666667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2246,41 +2246,41 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 48667-2022</t>
+          <t>A 33015-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44859</v>
+        <v>44376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,13 +2420,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>48.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2463,14 +2458,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 32828-2022</t>
+          <t>A 33016-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44784</v>
+        <v>44376</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2482,13 +2477,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2525,14 +2515,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43717-2021</t>
+          <t>A 48667-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44433.62546296296</v>
+        <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2544,8 +2534,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2582,14 +2577,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33015-2021</t>
+          <t>A 20210-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44376</v>
+        <v>44314</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2602,7 +2597,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>48.7</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2639,14 +2634,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33016-2021</t>
+          <t>A 10817-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44376</v>
+        <v>44259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2659,7 +2654,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2696,14 +2691,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 20210-2021</t>
+          <t>A 73772-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44314</v>
+        <v>44552</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2716,7 +2711,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2753,14 +2748,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 73772-2021</t>
+          <t>A 52035-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44552</v>
+        <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2773,7 +2768,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2810,14 +2805,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 10817-2021</t>
+          <t>A 35492-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44259</v>
+        <v>44385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2830,7 +2825,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2867,14 +2862,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52035-2021</t>
+          <t>A 32828-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44463</v>
+        <v>44784</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2886,8 +2881,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2924,14 +2924,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35492-2021</t>
+          <t>A 48647-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44385</v>
+        <v>44859</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2943,8 +2943,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2981,14 +2986,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 48647-2022</t>
+          <t>A 43717-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44859</v>
+        <v>44433.62546296296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3000,13 +3005,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3100,14 +3100,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44915</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3157,14 +3157,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44599</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3174,6 +3174,11 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3214,14 +3219,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 21285-2023</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45062</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3234,7 +3239,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3271,14 +3276,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44395</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3291,7 +3296,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3328,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45113</v>
+        <v>44550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3345,11 +3350,6 @@
       <c r="E39" t="inlineStr">
         <is>
           <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44259</v>
+        <v>44846</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 15690-2023</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45020</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45491</v>
+        <v>44395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>45491</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3637,13 +3637,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3680,14 +3675,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45406</v>
+        <v>44812</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3700,7 +3695,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3737,14 +3732,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>44664</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3757,7 +3752,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>11.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3794,14 +3789,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>44916</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3814,7 +3809,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3851,14 +3846,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44664</v>
+        <v>45020</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3871,7 +3866,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>11.2</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3908,14 +3903,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 15690-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45029</v>
+        <v>45020</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3928,7 +3923,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3965,14 +3960,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45924</v>
+        <v>44259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3985,7 +3980,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4022,14 +4017,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,13 +4036,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4084,14 +4074,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44846</v>
+        <v>45462</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,8 +4093,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4141,14 +4136,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44700</v>
+        <v>45029</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,13 +4155,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4203,14 +4193,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 21285-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>45062</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4223,7 +4213,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4260,14 +4250,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4275,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4322,14 +4312,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44844</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4341,8 +4331,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4379,14 +4374,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>44389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4398,8 +4393,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4436,14 +4436,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45020</v>
+        <v>44599</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4493,14 +4493,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4550,14 +4550,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45965</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4607,14 +4607,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44979</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4664,14 +4664,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44550</v>
+        <v>45530</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4721,14 +4721,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>45495</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,13 +4740,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4783,14 +4778,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44812</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,8 +4797,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4840,14 +4840,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>44979</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,8 +4916,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4954,14 +4959,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>44844</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4974,7 +4979,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5011,14 +5016,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44915</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5036,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5068,14 +5073,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45462</v>
+        <v>44915</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,13 +5092,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5130,14 +5130,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45530</v>
+        <v>45924</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5187,14 +5187,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45495</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5244,14 +5244,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44389</v>
+        <v>45406</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5263,13 +5263,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5306,14 +5301,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5325,8 +5320,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5363,14 +5363,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44916</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5382,8 +5382,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5420,14 +5425,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>45965</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5439,13 +5444,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,14 +1420,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30055-2025</t>
+          <t>A 30067-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>11.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1474,118 +1474,118 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Åkergroda
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30055-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Klasefibbla
 Blåsippa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30067-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
         <v/>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,14 +1772,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 14214-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45078</v>
+        <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,26 +1791,21 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -1821,55 +1816,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44938</v>
+        <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,8 +1876,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1916,45 +1916,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3726-2022</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44586</v>
+        <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>17.1</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,45 +2001,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 3726-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45842</v>
+        <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>17.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2086,45 +2086,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18100-2022</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44684</v>
+        <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2171,45 +2171,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 14214-2025</t>
+          <t>A 18100-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45740.58291666667</v>
+        <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2246,41 +2246,41 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33015-2021</t>
+          <t>A 48667-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44376</v>
+        <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,8 +2420,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>48.7</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2458,14 +2463,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33016-2021</t>
+          <t>A 32828-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44376</v>
+        <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,8 +2482,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2515,14 +2525,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 48667-2022</t>
+          <t>A 43717-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44859</v>
+        <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,13 +2544,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2577,14 +2582,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 20210-2021</t>
+          <t>A 33015-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44314</v>
+        <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2597,7 +2602,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>48.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2634,14 +2639,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 10817-2021</t>
+          <t>A 33016-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44259</v>
+        <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2654,7 +2659,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2691,14 +2696,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 73772-2021</t>
+          <t>A 20210-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44552</v>
+        <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2711,7 +2716,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2748,14 +2753,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 52035-2021</t>
+          <t>A 73772-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44463</v>
+        <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2768,7 +2773,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2805,14 +2810,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35492-2021</t>
+          <t>A 10817-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44385</v>
+        <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2825,7 +2830,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2862,14 +2867,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32828-2022</t>
+          <t>A 52035-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44784</v>
+        <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2881,13 +2886,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2924,14 +2924,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 48647-2022</t>
+          <t>A 35492-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44859</v>
+        <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2943,13 +2943,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2986,14 +2981,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 43717-2021</t>
+          <t>A 48647-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44433.62546296296</v>
+        <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3005,8 +3000,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3100,14 +3100,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 21285-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>45062</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3157,14 +3157,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>44915</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3176,13 +3176,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3219,14 +3214,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3238,8 +3233,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 15690-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>45020</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44550</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44846</v>
+        <v>45491</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,8 +3466,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3511,7 +3516,7 @@
         <v>44550.61508101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3561,14 +3566,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44395</v>
+        <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3581,7 +3586,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>11.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3618,14 +3623,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45491</v>
+        <v>45029</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3638,7 +3643,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3675,14 +3680,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44812</v>
+        <v>44846</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3695,7 +3700,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3732,14 +3737,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44664</v>
+        <v>44700</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3751,8 +3756,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>11.2</v>
+        <v>6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3789,14 +3799,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44916</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3809,7 +3819,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3846,14 +3856,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45020</v>
+        <v>44844</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3866,7 +3876,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3903,14 +3913,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15690-2023</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45020</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3923,7 +3933,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3960,14 +3970,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44259</v>
+        <v>45924</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3980,7 +3990,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4017,14 +4027,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>45020</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4037,7 +4047,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4074,14 +4084,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45462</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4093,13 +4103,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4136,14 +4141,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45029</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4155,8 +4160,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4193,14 +4203,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 21285-2023</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45062</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4212,8 +4222,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4250,14 +4265,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44700</v>
+        <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4269,13 +4284,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4312,14 +4322,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>44550</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,13 +4341,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4374,14 +4379,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44389</v>
+        <v>45965</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4393,13 +4398,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4436,14 +4436,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44599</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4453,6 +4453,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -4493,14 +4498,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44915</v>
+        <v>44812</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4518,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4550,14 +4555,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4575,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4607,14 +4612,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4632,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4664,14 +4669,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45530</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4689,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4721,14 +4726,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45495</v>
+        <v>44915</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4746,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4778,14 +4783,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>45462</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4803,7 +4808,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4840,14 +4845,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44979</v>
+        <v>45530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4897,14 +4902,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45113</v>
+        <v>45495</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,13 +4921,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4959,14 +4959,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44844</v>
+        <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4978,8 +4978,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5016,14 +5021,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5036,7 +5041,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5073,14 +5078,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5098,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5130,14 +5135,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45924</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5149,8 +5154,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5187,14 +5197,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>44599</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5207,7 +5217,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5244,14 +5254,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45406</v>
+        <v>44395</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5264,7 +5274,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5301,14 +5311,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>44259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5320,13 +5330,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5363,14 +5368,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>45406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5382,13 +5387,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5425,14 +5425,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45965</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,14 +869,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 24599-2022</t>
+          <t>A 60416-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44727</v>
+        <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -888,17 +888,22 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -913,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -922,6 +927,100 @@
         <v>6</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Grön aspvedbock
+Spillkråka
+Tallticka
+Talltita
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60416-2025 artfynd.xlsx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60416-2025 karta.png", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60416-2025 FSC-klagomål.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60416-2025 FSC-klagomål mail.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60416-2025 tillsynsbegäran.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60416-2025 tillsynsbegäran mail.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/fåglar/A 60416-2025 prioriterade fågelarter.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 24599-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Almsnabbvinge
 Svartpälsbi
@@ -931,127 +1030,28 @@
 Mattlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 24599-2022 artfynd.xlsx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 24599-2022 karta.png", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 24599-2022 FSC-klagomål.docx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 24599-2022 FSC-klagomål mail.docx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 24599-2022 tillsynsbegäran.docx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 24599-2022 tillsynsbegäran mail.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 60416-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45995.45151620371</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Grön aspvedbock
-Spillkråka
-Tallticka
-Talltita
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60416-2025 artfynd.xlsx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60416-2025 karta.png", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60416-2025 FSC-klagomål.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60416-2025 FSC-klagomål mail.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60416-2025 tillsynsbegäran.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60416-2025 tillsynsbegäran mail.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/fåglar/A 60416-2025 prioriterade fågelarter.docx", "A 60416-2025")</f>
         <v/>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1857,14 +1857,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45078</v>
+        <v>45842</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,13 +1876,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1916,45 +1911,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45842</v>
+        <v>45078</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,8 +1961,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,31 +2001,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2810,14 +2810,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 10817-2021</t>
+          <t>A 52035-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44259</v>
+        <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2867,14 +2867,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52035-2021</t>
+          <t>A 10817-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44463</v>
+        <v>44259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>45062</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44915</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>45020</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>45740.58534722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>45491</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>45646.33262731481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44550.61508101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>45029</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3680,14 +3680,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44846</v>
+        <v>45924</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3737,14 +3737,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44700</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3799,14 +3799,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3818,8 +3818,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3856,14 +3861,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44844</v>
+        <v>44846</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,14 +3918,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3932,8 +3937,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3970,14 +3980,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45924</v>
+        <v>45965</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3990,7 +4000,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4027,14 +4037,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45020</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4047,7 +4057,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4084,14 +4094,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>44844</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4104,7 +4114,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4141,14 +4151,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,13 +4170,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4203,14 +4208,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>45020</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4222,13 +4227,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4265,14 +4265,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44979</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4322,14 +4322,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44550</v>
+        <v>44979</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4379,14 +4379,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45965</v>
+        <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>44859.43993055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44812</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45376.45421296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45406.56984953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45481.47731481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44915</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45462</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45495</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45406.56561342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45678.57962962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44599</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44395</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45376.47072916666</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1857,14 +1857,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45842</v>
+        <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,8 +1876,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1911,45 +1916,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45078</v>
+        <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1961,13 +1966,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,31 +2001,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2810,14 +2810,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52035-2021</t>
+          <t>A 10817-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44463</v>
+        <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2867,14 +2867,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10817-2021</t>
+          <t>A 52035-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44259</v>
+        <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>45062</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44915</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>45020</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3333,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>45406</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45491</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,13 +3466,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3509,14 +3504,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>45491</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3529,7 +3524,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3566,14 +3561,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44664</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3585,8 +3580,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>11.2</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3623,14 +3623,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45029</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3680,14 +3680,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45924</v>
+        <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>11.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3737,14 +3737,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>45924</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3756,13 +3756,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3799,14 +3794,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>45029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3818,13 +3813,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3861,14 +3851,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44846</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,8 +3870,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3918,14 +3913,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44700</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3943,7 +3938,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3980,14 +3975,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45965</v>
+        <v>44846</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +3995,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4037,14 +4032,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>45965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4057,7 +4052,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4094,14 +4089,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44844</v>
+        <v>44700</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,8 +4108,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4151,14 +4151,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4208,14 +4208,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45020</v>
+        <v>44844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4265,14 +4265,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4322,14 +4322,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44979</v>
+        <v>45020</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4379,14 +4379,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44550</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4436,14 +4436,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>44979</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4455,13 +4455,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4498,14 +4493,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44812</v>
+        <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4518,7 +4513,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4555,14 +4550,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,8 +4569,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>44812</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44915</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45462</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,13 +4802,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4845,14 +4840,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45530</v>
+        <v>44915</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4865,7 +4860,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4902,14 +4897,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45495</v>
+        <v>45462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4921,8 +4916,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4959,14 +4959,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44389</v>
+        <v>45530</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4978,13 +4978,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5021,14 +5016,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>45495</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5041,7 +5036,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5078,14 +5073,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44916</v>
+        <v>44389</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5097,8 +5092,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5135,14 +5135,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5154,13 +5154,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5197,14 +5192,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44599</v>
+        <v>44916</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5212,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5254,14 +5249,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44395</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,8 +5268,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5311,14 +5311,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44259</v>
+        <v>44599</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5368,14 +5368,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45406</v>
+        <v>44395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5425,14 +5425,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>44259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,14 +1420,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30067-2025</t>
+          <t>A 30055-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>11.9</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1474,118 +1474,118 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Klasefibbla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30067-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Åkergroda
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30055-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
         <v/>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,14 +1772,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 14214-2025</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45740.58291666667</v>
+        <v>45842</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,19 +1792,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1816,55 +1816,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 14214-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45078</v>
+        <v>45740.58291666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,26 +1876,21 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -1906,55 +1901,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45842</v>
+        <v>45078</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,8 +1961,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,45 +2001,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 3726-2022</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44586</v>
+        <v>44938</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>17.1</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2086,45 +2086,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 3726-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44938</v>
+        <v>44586</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>17.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2171,31 +2171,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3062,8 +3062,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3100,14 +3105,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21285-2023</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45062</v>
+        <v>44915</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3120,7 +3125,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3157,14 +3162,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44915</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3177,7 +3182,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3214,14 +3219,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45113</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3233,13 +3238,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15690-2023</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45020</v>
+        <v>44846</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45406</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>44395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,8 +3466,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3504,14 +3509,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45491</v>
+        <v>45406</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3524,7 +3529,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3561,14 +3566,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3580,13 +3585,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3623,14 +3623,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3642,8 +3642,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3680,14 +3685,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44664</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3700,7 +3705,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>11.2</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3737,14 +3742,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45924</v>
+        <v>45965</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3757,7 +3762,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3794,14 +3799,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45029</v>
+        <v>44550</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3814,7 +3819,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3851,14 +3856,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>45924</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3870,13 +3875,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3913,14 +3913,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>45491</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3932,13 +3932,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3975,14 +3970,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44846</v>
+        <v>44664</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3995,7 +3990,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>11.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4032,14 +4027,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45965</v>
+        <v>44916</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4052,7 +4047,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4089,14 +4084,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44700</v>
+        <v>45020</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4108,13 +4103,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4151,14 +4141,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>44259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4171,7 +4161,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4208,14 +4198,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44844</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4218,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4265,14 +4255,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 21285-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>45062</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4275,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4322,14 +4312,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45020</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4341,8 +4331,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4379,14 +4374,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>44389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4398,8 +4393,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4436,14 +4436,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44979</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4493,14 +4493,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44550</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4550,14 +4550,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4567,11 +4567,6 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -4612,14 +4607,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 15690-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44812</v>
+        <v>45020</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4632,7 +4627,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4669,14 +4664,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>44700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,8 +4683,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>44599</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>44915</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4840,14 +4840,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44915</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45462</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,13 +4916,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4966,7 +4961,7 @@
         <v>45530</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,14 +5011,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45495</v>
+        <v>44979</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5036,7 +5031,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5073,14 +5068,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44389</v>
+        <v>45462</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5098,7 +5093,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5135,14 +5130,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>45029</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5150,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5192,14 +5187,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44916</v>
+        <v>45495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5212,7 +5207,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5249,14 +5244,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5274,7 +5269,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5311,14 +5306,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44599</v>
+        <v>45113</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5330,8 +5325,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5368,14 +5368,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44395</v>
+        <v>44844</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5425,14 +5425,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44259</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,14 +1420,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30055-2025</t>
+          <t>A 30067-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>11.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1474,118 +1474,118 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Åkergroda
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30055-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Klasefibbla
 Blåsippa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30067-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
         <v/>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,14 +1772,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 14214-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45842</v>
+        <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,20 +1792,20 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -1816,55 +1816,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 14214-2025</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45740.58291666667</v>
+        <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,20 +1876,25 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1901,55 +1906,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45078</v>
+        <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1961,13 +1966,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,45 +2001,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 3726-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44938</v>
+        <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>17.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2086,45 +2086,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 3726-2022</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44586</v>
+        <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>17.1</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2171,31 +2171,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3062,13 +3062,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3105,14 +3100,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 21285-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44915</v>
+        <v>45062</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3125,7 +3120,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3162,14 +3157,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>44915</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3182,7 +3177,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3219,14 +3214,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3238,8 +3233,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 15690-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44846</v>
+        <v>45020</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>45491</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44395</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3409,8 +3409,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3447,14 +3452,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,13 +3471,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3509,14 +3509,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45406</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3566,14 +3566,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44812</v>
+        <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>11.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3623,14 +3623,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>45029</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3642,13 +3642,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3685,14 +3680,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>45924</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3705,7 +3700,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3742,14 +3737,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45965</v>
+        <v>44846</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3762,7 +3757,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3799,14 +3794,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44550</v>
+        <v>44700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3818,8 +3813,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3856,14 +3856,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45924</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3913,14 +3913,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45491</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3932,8 +3932,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3970,14 +3975,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44664</v>
+        <v>44844</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3990,7 +3995,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11.2</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4027,14 +4032,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44916</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4047,7 +4052,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4084,14 +4089,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45020</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,8 +4108,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4141,14 +4151,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44259</v>
+        <v>45020</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4161,7 +4171,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4198,14 +4208,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4218,7 +4228,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4255,14 +4265,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 21285-2023</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45062</v>
+        <v>45965</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4275,7 +4285,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4312,14 +4322,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>44979</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,13 +4341,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4374,14 +4379,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44389</v>
+        <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4393,13 +4398,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4436,14 +4436,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4455,8 +4455,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4493,14 +4498,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>44812</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4518,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4550,14 +4555,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4575,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4607,14 +4612,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15690-2023</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45020</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4632,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4664,14 +4669,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44700</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4683,13 +4688,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44599</v>
+        <v>44915</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44915</v>
+        <v>45462</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,8 +4802,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4840,14 +4845,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>45530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4860,7 +4865,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4897,14 +4902,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>45495</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4917,7 +4922,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4954,14 +4959,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45530</v>
+        <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,8 +4978,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5011,14 +5021,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44979</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5041,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5068,14 +5078,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45462</v>
+        <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,13 +5097,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5130,14 +5135,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45029</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5149,8 +5154,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5187,14 +5197,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45495</v>
+        <v>44599</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5207,7 +5217,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5244,14 +5254,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>44395</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5263,13 +5273,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5306,14 +5311,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45113</v>
+        <v>44259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5325,13 +5330,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5368,14 +5368,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44844</v>
+        <v>45406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5425,14 +5425,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>45062</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44915</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>45020</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>45491</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>45646.33262731481</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44550.61508101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>45740.58534722222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>45029</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45924</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44846</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>45355.49099537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45938.3790162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44844</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>44586.57239583333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>45945.36526620371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>45020</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>44550.5162037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>45965</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>44979</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44859.43993055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44812</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45376.45421296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45406.56984953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45481.47731481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44915</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45462</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45495</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45406.56561342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45678.57962962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44599</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44395</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45376.47072916666</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>45062</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44915</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>45020</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>45491</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>45646.33262731481</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44550.61508101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>45740.58534722222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>45029</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45924</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44846</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>45355.49099537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45938.3790162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44844</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>44586.57239583333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>45945.36526620371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>45020</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>44550.5162037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>45965</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>44979</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44859.43993055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44812</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45376.45421296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45406.56984953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45481.47731481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44915</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45462</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45495</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45406.56561342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45678.57962962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44599</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44395</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45376.47072916666</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,14 +869,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 60416-2025</t>
+          <t>A 24599-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45995.45151620371</v>
+        <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -888,22 +888,17 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -918,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -927,6 +922,101 @@
         <v>6</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Almsnabbvinge
+Svartpälsbi
+Igelkottsröksvamp
+Sotriska
+Vanlig groda
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 24599-2022 artfynd.xlsx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 24599-2022 karta.png", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 24599-2022 FSC-klagomål.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 24599-2022 FSC-klagomål mail.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 24599-2022 tillsynsbegäran.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 24599-2022 tillsynsbegäran mail.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 60416-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45995.45151620371</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Entita
 Grön aspvedbock
@@ -936,122 +1026,32 @@
 Gröngöling</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60416-2025 artfynd.xlsx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60416-2025 karta.png", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60416-2025 FSC-klagomål.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60416-2025 FSC-klagomål mail.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60416-2025 tillsynsbegäran.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60416-2025 tillsynsbegäran mail.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/fåglar/A 60416-2025 prioriterade fågelarter.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 24599-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44727</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Almsnabbvinge
-Svartpälsbi
-Igelkottsröksvamp
-Sotriska
-Vanlig groda
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 24599-2022 artfynd.xlsx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 24599-2022 karta.png", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 24599-2022 FSC-klagomål.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 24599-2022 FSC-klagomål mail.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 24599-2022 tillsynsbegäran.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 24599-2022 tillsynsbegäran mail.docx", "A 24599-2022")</f>
         <v/>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,14 +1420,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30067-2025</t>
+          <t>A 60406-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45826</v>
+        <v>45995.43050925926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1439,14 +1439,19 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>11.9</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1474,209 +1479,204 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Björksplintborre
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60406-2025 artfynd.xlsx", "A 60406-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60406-2025 karta.png", "A 60406-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60406-2025 FSC-klagomål.docx", "A 60406-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60406-2025 FSC-klagomål mail.docx", "A 60406-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60406-2025 tillsynsbegäran.docx", "A 60406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60406-2025 tillsynsbegäran mail.docx", "A 60406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30055-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Klasefibbla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 30067-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Åkergroda
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30055-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 60406-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45995.43050925926</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60406-2025 artfynd.xlsx", "A 60406-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60406-2025 karta.png", "A 60406-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60406-2025 FSC-klagomål.docx", "A 60406-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60406-2025 FSC-klagomål mail.docx", "A 60406-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60406-2025 tillsynsbegäran.docx", "A 60406-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60406-2025 tillsynsbegäran mail.docx", "A 60406-2025")</f>
         <v/>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1857,14 +1857,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45078</v>
+        <v>44938</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,13 +1876,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1916,45 +1911,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 18100-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45842</v>
+        <v>44684</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,13 +1962,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,31 +1996,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
     </row>
@@ -2039,7 +2034,7 @@
         <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2117,14 +2112,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44938</v>
+        <v>45078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2136,8 +2131,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2171,45 +2171,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18100-2022</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44684</v>
+        <v>45842</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,31 +2256,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,14 +2344,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3681-2022</t>
+          <t>A 48667-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44586</v>
+        <v>44859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2361,6 +2361,11 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2401,14 +2406,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 48667-2022</t>
+          <t>A 32828-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44859</v>
+        <v>44784</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2426,7 +2431,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2463,14 +2468,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 32828-2022</t>
+          <t>A 43717-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44784</v>
+        <v>44433.62546296296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2482,13 +2487,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2525,14 +2525,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43717-2021</t>
+          <t>A 33015-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44433.62546296296</v>
+        <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>48.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2582,14 +2582,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33015-2021</t>
+          <t>A 33016-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>48.7</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2639,14 +2639,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33016-2021</t>
+          <t>A 3681-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44376</v>
+        <v>44586</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2696,14 +2696,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 20210-2021</t>
+          <t>A 73772-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44314</v>
+        <v>44552</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2753,14 +2753,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 73772-2021</t>
+          <t>A 20210-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44552</v>
+        <v>44314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2867,14 +2867,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52035-2021</t>
+          <t>A 48647-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44463</v>
+        <v>44859</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2886,8 +2886,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2924,14 +2929,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35492-2021</t>
+          <t>A 52035-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44385</v>
+        <v>44463</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2944,7 +2949,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2981,14 +2986,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 48647-2022</t>
+          <t>A 35492-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44859</v>
+        <v>44385</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3000,13 +3005,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>45491</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3100,14 +3100,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21285-2023</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45062</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3119,8 +3119,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3157,14 +3162,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44915</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3177,7 +3182,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3214,14 +3219,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45113</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3233,13 +3238,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15690-2023</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45020</v>
+        <v>44664</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>11.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45491</v>
+        <v>44395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>44846</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3409,13 +3409,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3452,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 21285-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>45062</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3472,7 +3467,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3509,14 +3504,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>44916</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3529,7 +3524,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3566,14 +3561,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44664</v>
+        <v>45020</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3586,7 +3581,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>11.2</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3623,14 +3618,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45029</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3642,8 +3637,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3680,14 +3680,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45924</v>
+        <v>44812</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3737,14 +3737,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44846</v>
+        <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3756,8 +3756,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3794,14 +3799,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44700</v>
+        <v>44259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3813,13 +3818,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3856,14 +3856,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3913,14 +3913,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3932,13 +3932,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3975,14 +3970,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 15690-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44844</v>
+        <v>45020</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3995,7 +3990,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4032,14 +4027,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4052,7 +4047,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4089,14 +4084,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4108,13 +4103,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4151,14 +4141,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45020</v>
+        <v>44700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4170,8 +4160,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4208,14 +4203,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4228,7 +4223,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4265,14 +4260,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45965</v>
+        <v>44599</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4280,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4322,14 +4317,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44979</v>
+        <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4337,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4379,14 +4374,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44550</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4394,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4436,14 +4431,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4455,13 +4450,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4498,14 +4488,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44812</v>
+        <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4518,7 +4508,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4555,14 +4545,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>45530</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4575,7 +4565,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4612,14 +4602,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>44979</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4632,7 +4622,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4669,14 +4659,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>45462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,8 +4678,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4726,14 +4721,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44915</v>
+        <v>45924</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4746,7 +4741,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4783,14 +4778,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45462</v>
+        <v>45029</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,13 +4797,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4845,14 +4835,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45530</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4864,8 +4854,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4909,7 +4904,7 @@
         <v>45495</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,14 +4954,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44389</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4984,7 +4979,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5021,14 +5016,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,8 +5035,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5078,14 +5078,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44916</v>
+        <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5097,8 +5097,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5135,14 +5140,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>44844</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5154,13 +5159,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5197,14 +5197,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44599</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5254,14 +5254,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44395</v>
+        <v>45965</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5311,14 +5311,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44259</v>
+        <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5368,14 +5368,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45406</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5425,14 +5425,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>45406</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,14 +869,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 24599-2022</t>
+          <t>A 60416-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44727</v>
+        <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -888,17 +888,22 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -913,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -922,6 +927,100 @@
         <v>6</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Grön aspvedbock
+Spillkråka
+Tallticka
+Talltita
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60416-2025 artfynd.xlsx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60416-2025 karta.png", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60416-2025 FSC-klagomål.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60416-2025 FSC-klagomål mail.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60416-2025 tillsynsbegäran.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60416-2025 tillsynsbegäran mail.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/fåglar/A 60416-2025 prioriterade fågelarter.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 24599-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Almsnabbvinge
 Svartpälsbi
@@ -931,127 +1030,28 @@
 Mattlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 24599-2022 artfynd.xlsx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 24599-2022 karta.png", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 24599-2022 FSC-klagomål.docx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 24599-2022 FSC-klagomål mail.docx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 24599-2022 tillsynsbegäran.docx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 24599-2022 tillsynsbegäran mail.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 60416-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45995.45151620371</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Grön aspvedbock
-Spillkråka
-Tallticka
-Talltita
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60416-2025 artfynd.xlsx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60416-2025 karta.png", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60416-2025 FSC-klagomål.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60416-2025 FSC-klagomål mail.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60416-2025 tillsynsbegäran.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60416-2025 tillsynsbegäran mail.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/fåglar/A 60416-2025 prioriterade fågelarter.docx", "A 60416-2025")</f>
         <v/>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,14 +1420,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 60406-2025</t>
+          <t>A 30067-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45995.43050925926</v>
+        <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1439,19 +1439,14 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>11.9</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1479,204 +1474,209 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Åkergroda
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30055-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Klasefibbla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 60406-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45995.43050925926</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Björksplintborre
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60406-2025 artfynd.xlsx", "A 60406-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60406-2025 karta.png", "A 60406-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60406-2025 FSC-klagomål.docx", "A 60406-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60406-2025 FSC-klagomål mail.docx", "A 60406-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60406-2025 tillsynsbegäran.docx", "A 60406-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60406-2025 tillsynsbegäran mail.docx", "A 60406-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30055-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 30067-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
         <v/>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1857,14 +1857,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44938</v>
+        <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,8 +1876,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1911,45 +1916,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 18100-2022</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44684</v>
+        <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1962,13 +1967,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1996,31 +2001,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
@@ -2034,7 +2039,7 @@
         <v>44586</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,14 +2117,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45078</v>
+        <v>44938</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,13 +2136,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2171,45 +2171,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 18100-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45842</v>
+        <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,31 +2256,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2344,14 +2344,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 48667-2022</t>
+          <t>A 3681-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44859</v>
+        <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2361,11 +2361,6 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2406,14 +2401,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 32828-2022</t>
+          <t>A 48667-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44784</v>
+        <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2431,7 +2426,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2468,14 +2463,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 43717-2021</t>
+          <t>A 32828-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44433.62546296296</v>
+        <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2487,8 +2482,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2525,14 +2525,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33015-2021</t>
+          <t>A 43717-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44376</v>
+        <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>48.7</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2582,14 +2582,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33016-2021</t>
+          <t>A 33015-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>48.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2639,14 +2639,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 3681-2022</t>
+          <t>A 33016-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44586</v>
+        <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2696,14 +2696,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 73772-2021</t>
+          <t>A 20210-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44552</v>
+        <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2753,14 +2753,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 20210-2021</t>
+          <t>A 73772-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44314</v>
+        <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2867,14 +2867,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 48647-2022</t>
+          <t>A 52035-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44859</v>
+        <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2886,13 +2886,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2929,14 +2924,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 52035-2021</t>
+          <t>A 35492-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44463</v>
+        <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2949,7 +2944,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2986,14 +2981,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35492-2021</t>
+          <t>A 48647-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44385</v>
+        <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3005,8 +3000,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45491</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3100,14 +3100,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 21285-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>45062</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3119,13 +3119,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3162,14 +3157,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>44915</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3182,7 +3177,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3219,14 +3214,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3238,8 +3233,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 15690-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44664</v>
+        <v>45020</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44395</v>
+        <v>45406</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44846</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3447,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21285-2023</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45062</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44916</v>
+        <v>45491</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45020</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3580,8 +3580,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3618,14 +3623,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3637,13 +3642,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3680,14 +3680,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44812</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3699,8 +3699,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3737,14 +3742,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44389</v>
+        <v>45924</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3756,13 +3761,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3799,14 +3799,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44259</v>
+        <v>44664</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>11.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3856,14 +3856,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>45029</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3913,14 +3913,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3932,8 +3932,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3970,14 +3975,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 15690-2023</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45020</v>
+        <v>44846</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3990,7 +3995,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4027,14 +4032,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>44700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4046,8 +4051,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4084,14 +4094,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4104,7 +4114,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4141,14 +4151,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44700</v>
+        <v>44844</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,13 +4170,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4203,14 +4208,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4223,7 +4228,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4260,14 +4265,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44599</v>
+        <v>45965</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4280,7 +4285,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4317,14 +4322,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44915</v>
+        <v>45020</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4337,7 +4342,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4374,14 +4379,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4394,7 +4399,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4431,14 +4436,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>44979</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4451,7 +4456,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4495,7 +4500,7 @@
         <v>44550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4545,14 +4550,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45530</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4564,8 +4569,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4602,14 +4612,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44979</v>
+        <v>44812</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4622,7 +4632,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4659,14 +4669,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45462</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,13 +4688,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4721,14 +4726,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45924</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4746,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4778,14 +4783,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45029</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4803,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4835,14 +4840,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>44915</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,13 +4859,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45495</v>
+        <v>45462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,8 +4916,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4954,14 +4959,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>45530</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,13 +4978,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5016,14 +5016,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>45495</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5035,13 +5035,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5078,14 +5073,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45113</v>
+        <v>44389</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5103,7 +5098,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5140,14 +5135,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44844</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5160,7 +5155,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5197,14 +5192,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>44916</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5212,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5254,14 +5249,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45965</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,8 +5268,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5311,14 +5311,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44915</v>
+        <v>44599</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5368,14 +5368,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>44395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5425,14 +5425,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45406</v>
+        <v>44259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,14 +869,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 60416-2025</t>
+          <t>A 24599-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45995.45151620371</v>
+        <v>44727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -888,22 +888,17 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -918,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -927,6 +922,101 @@
         <v>6</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Almsnabbvinge
+Svartpälsbi
+Igelkottsröksvamp
+Sotriska
+Vanlig groda
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 24599-2022 artfynd.xlsx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 24599-2022 karta.png", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 24599-2022 FSC-klagomål.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 24599-2022 FSC-klagomål mail.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 24599-2022 tillsynsbegäran.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 24599-2022 tillsynsbegäran mail.docx", "A 24599-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 60416-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45995.45151620371</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Entita
 Grön aspvedbock
@@ -936,122 +1026,32 @@
 Gröngöling</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60416-2025 artfynd.xlsx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60416-2025 karta.png", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60416-2025 FSC-klagomål.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60416-2025 FSC-klagomål mail.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60416-2025 tillsynsbegäran.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60416-2025 tillsynsbegäran mail.docx", "A 60416-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/fåglar/A 60416-2025 prioriterade fågelarter.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 24599-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44727</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Almsnabbvinge
-Svartpälsbi
-Igelkottsröksvamp
-Sotriska
-Vanlig groda
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 24599-2022 artfynd.xlsx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 24599-2022 karta.png", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 24599-2022 FSC-klagomål.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 24599-2022 FSC-klagomål mail.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 24599-2022 tillsynsbegäran.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 24599-2022 tillsynsbegäran mail.docx", "A 24599-2022")</f>
         <v/>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,14 +1420,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30067-2025</t>
+          <t>A 30055-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>11.9</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1474,118 +1474,118 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Klasefibbla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 30067-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Åkergroda
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30067-2025 artfynd.xlsx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30067-2025 karta.png", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30067-2025 FSC-klagomål.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30067-2025 FSC-klagomål mail.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30067-2025 tillsynsbegäran.docx", "A 30067-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30067-2025 tillsynsbegäran mail.docx", "A 30067-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 30055-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 30055-2025 artfynd.xlsx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 30055-2025 karta.png", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 30055-2025 FSC-klagomål.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 30055-2025 FSC-klagomål mail.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 30055-2025 tillsynsbegäran.docx", "A 30055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 30055-2025 tillsynsbegäran mail.docx", "A 30055-2025")</f>
         <v/>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1857,14 +1857,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45078</v>
+        <v>44938</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,13 +1876,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1916,45 +1911,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 3726-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45842</v>
+        <v>44586</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1962,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>17.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2001,45 +1996,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 3726-2022</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44586</v>
+        <v>45078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2051,8 +2046,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>17.1</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2086,45 +2086,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 18100-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44938</v>
+        <v>44684</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2171,45 +2171,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18100-2022</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44684</v>
+        <v>45842</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,31 +2256,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2525,14 +2525,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43717-2021</t>
+          <t>A 33015-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44433.62546296296</v>
+        <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>48.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2582,14 +2582,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33015-2021</t>
+          <t>A 33016-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>48.7</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2639,14 +2639,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33016-2021</t>
+          <t>A 43717-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44376</v>
+        <v>44433.62546296296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2753,14 +2753,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 73772-2021</t>
+          <t>A 10817-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44552</v>
+        <v>44259</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2810,14 +2810,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 10817-2021</t>
+          <t>A 73772-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44259</v>
+        <v>44552</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2924,14 +2924,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35492-2021</t>
+          <t>A 48647-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44385</v>
+        <v>44859</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2943,8 +2943,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2981,14 +2986,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 48647-2022</t>
+          <t>A 35492-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44859</v>
+        <v>44385</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3000,13 +3005,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>44916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3100,14 +3100,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21285-2023</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45062</v>
+        <v>45020</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3157,14 +3157,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44915</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3176,8 +3176,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3214,14 +3219,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45113</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3233,13 +3238,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15690-2023</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45020</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45406</v>
+        <v>45029</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>44259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>44846</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45491</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>44395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3580,13 +3580,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3623,14 +3618,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>44812</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3643,7 +3638,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3680,14 +3675,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>45495</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3699,13 +3694,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3742,14 +3732,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45924</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3761,8 +3751,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3799,14 +3794,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44664</v>
+        <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3818,8 +3813,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>11.2</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3856,14 +3856,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 21285-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45029</v>
+        <v>45062</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3913,14 +3913,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3932,13 +3932,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3975,14 +3970,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44846</v>
+        <v>44844</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4032,14 +4027,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44700</v>
+        <v>44550</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,13 +4046,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4094,14 +4084,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4114,7 +4104,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4151,14 +4141,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44844</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4170,8 +4160,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4208,14 +4203,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>44389</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4227,8 +4222,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4265,14 +4265,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45965</v>
+        <v>45491</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.4</v>
+        <v>0.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4322,14 +4322,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45020</v>
+        <v>44664</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>11.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4379,14 +4379,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>44915</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4436,14 +4436,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 15690-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44979</v>
+        <v>45020</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4493,14 +4493,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44550</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4550,14 +4550,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4569,13 +4569,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4612,14 +4607,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44812</v>
+        <v>45406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4632,7 +4627,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4669,14 +4664,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4689,7 +4684,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4726,14 +4721,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4746,7 +4741,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4783,14 +4778,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>45924</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4803,7 +4798,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4840,14 +4835,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44915</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,8 +4854,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45462</v>
+        <v>44700</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4959,14 +4959,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45530</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4978,8 +4978,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5016,14 +5021,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45495</v>
+        <v>44599</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5036,7 +5041,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5073,14 +5078,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44389</v>
+        <v>44915</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5092,13 +5097,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5135,14 +5135,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5192,14 +5192,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44916</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5249,14 +5249,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>45965</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5268,13 +5268,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5311,14 +5306,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44599</v>
+        <v>45530</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5331,7 +5326,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5368,14 +5363,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44395</v>
+        <v>44979</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5388,7 +5383,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5425,14 +5420,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44259</v>
+        <v>45462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5444,8 +5439,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,14 +869,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 24599-2022</t>
+          <t>A 60416-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44727</v>
+        <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -888,17 +888,22 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -913,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -922,6 +927,100 @@
         <v>6</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Grön aspvedbock
+Spillkråka
+Tallticka
+Talltita
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60416-2025 artfynd.xlsx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60416-2025 karta.png", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60416-2025 FSC-klagomål.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60416-2025 FSC-klagomål mail.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60416-2025 tillsynsbegäran.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60416-2025 tillsynsbegäran mail.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/fåglar/A 60416-2025 prioriterade fågelarter.docx", "A 60416-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 24599-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BOTKYRKA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Almsnabbvinge
 Svartpälsbi
@@ -931,127 +1030,28 @@
 Mattlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 24599-2022 artfynd.xlsx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 24599-2022 karta.png", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 24599-2022 FSC-klagomål.docx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 24599-2022 FSC-klagomål mail.docx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 24599-2022 tillsynsbegäran.docx", "A 24599-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 24599-2022 tillsynsbegäran mail.docx", "A 24599-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 60416-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45995.45151620371</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BOTKYRKA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Grön aspvedbock
-Spillkråka
-Tallticka
-Talltita
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 60416-2025 artfynd.xlsx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 60416-2025 karta.png", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 60416-2025 FSC-klagomål.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 60416-2025 FSC-klagomål mail.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 60416-2025 tillsynsbegäran.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 60416-2025 tillsynsbegäran mail.docx", "A 60416-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/fåglar/A 60416-2025 prioriterade fågelarter.docx", "A 60416-2025")</f>
         <v/>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,14 +1772,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 14214-2025</t>
+          <t>A 33801-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45740.58291666667</v>
+        <v>45842</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,19 +1792,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1816,55 +1816,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 1691-2023</t>
+          <t>A 14214-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44938</v>
+        <v>45740.58291666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1877,20 +1877,20 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
@@ -1901,55 +1901,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 14214-2025 artfynd.xlsx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 14214-2025 karta.png", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 14214-2025 FSC-klagomål.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 14214-2025 FSC-klagomål mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 14214-2025 tillsynsbegäran.docx", "A 14214-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 14214-2025 tillsynsbegäran mail.docx", "A 14214-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3726-2022</t>
+          <t>A 23829-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44586</v>
+        <v>45078</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1961,8 +1961,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>17.1</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1996,45 +2001,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 23829-2023</t>
+          <t>A 1691-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45078</v>
+        <v>44938</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2046,13 +2051,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2086,45 +2086,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 23829-2023 artfynd.xlsx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 1691-2023 artfynd.xlsx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 23829-2023 karta.png", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 1691-2023 karta.png", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 23829-2023 FSC-klagomål.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 1691-2023 FSC-klagomål.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 23829-2023 FSC-klagomål mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 1691-2023 FSC-klagomål mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 23829-2023 tillsynsbegäran.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 1691-2023 tillsynsbegäran.docx", "A 1691-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 23829-2023 tillsynsbegäran mail.docx", "A 23829-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 1691-2023 tillsynsbegäran mail.docx", "A 1691-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18100-2022</t>
+          <t>A 3726-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44684</v>
+        <v>44586</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>17.1</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2171,45 +2171,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 3726-2022 artfynd.xlsx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 3726-2022 karta.png", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 3726-2022 FSC-klagomål.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 3726-2022 FSC-klagomål mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 3726-2022 tillsynsbegäran.docx", "A 3726-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 3726-2022 tillsynsbegäran mail.docx", "A 3726-2022")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33801-2025</t>
+          <t>A 18100-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45842</v>
+        <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,31 +2256,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 33801-2025 artfynd.xlsx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/artfynd/A 18100-2022 artfynd.xlsx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 33801-2025 karta.png", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/kartor/A 18100-2022 karta.png", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 33801-2025 FSC-klagomål.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomål/A 18100-2022 FSC-klagomål.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 33801-2025 FSC-klagomål mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/klagomålsmail/A 18100-2022 FSC-klagomål mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 33801-2025 tillsynsbegäran.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsyn/A 18100-2022 tillsynsbegäran.docx", "A 18100-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 33801-2025 tillsynsbegäran mail.docx", "A 33801-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0127/tillsynsmail/A 18100-2022 tillsynsbegäran mail.docx", "A 18100-2022")</f>
         <v/>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2525,14 +2525,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33015-2021</t>
+          <t>A 43717-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44376</v>
+        <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>48.7</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2582,14 +2582,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33016-2021</t>
+          <t>A 33015-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>48.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2639,14 +2639,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43717-2021</t>
+          <t>A 33016-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44433.62546296296</v>
+        <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2753,14 +2753,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 10817-2021</t>
+          <t>A 73772-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44259</v>
+        <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2810,14 +2810,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 73772-2021</t>
+          <t>A 10817-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44552</v>
+        <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2924,14 +2924,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 48647-2022</t>
+          <t>A 35492-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44859</v>
+        <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2943,13 +2943,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2986,14 +2981,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35492-2021</t>
+          <t>A 48647-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44385</v>
+        <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3005,8 +3000,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3043,14 +3043,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 61514-2022</t>
+          <t>A 48656-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44916</v>
+        <v>44859.43993055556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3062,8 +3062,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3100,14 +3105,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 15692-2023</t>
+          <t>A 16145-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45020</v>
+        <v>45406.56561342593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3120,7 +3125,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3157,14 +3162,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 48656-2022</t>
+          <t>A 16149-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44859.43993055556</v>
+        <v>45406.56984953704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3176,13 +3181,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3219,14 +3219,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16149-2024</t>
+          <t>A 46405-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45406.56984953704</v>
+        <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 16145-2024</t>
+          <t>A 37095-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45406.56561342593</v>
+        <v>44395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16483-2023</t>
+          <t>A 38194-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45029</v>
+        <v>44812</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10815-2021</t>
+          <t>A 28983-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44259</v>
+        <v>45481.47731481482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 46405-2022</t>
+          <t>A 73155-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44846</v>
+        <v>44550</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14202-2025</t>
+          <t>A 30378-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45740.57461805556</v>
+        <v>45491</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 37095-2021</t>
+          <t>A 15905-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44395</v>
+        <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>11.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38194-2022</t>
+          <t>A 61514-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44812</v>
+        <v>44916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 30622-2024</t>
+          <t>A 15692-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45495</v>
+        <v>45020</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61320-2024</t>
+          <t>A 10815-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45646.33262731481</v>
+        <v>44259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3751,13 +3751,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3794,14 +3789,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30925-2023</t>
+          <t>A 14202-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45113</v>
+        <v>45740.57461805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3813,13 +3808,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3863,7 +3853,7 @@
         <v>45062</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,14 +3903,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28983-2024</t>
+          <t>A 45945-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45481.47731481482</v>
+        <v>45924</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3933,7 +3923,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3970,14 +3960,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45869-2022</t>
+          <t>A 3021-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44844</v>
+        <v>45678.57962962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3989,8 +3979,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4027,14 +4022,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 73155-2021</t>
+          <t>A 36097-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44550</v>
+        <v>44389</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4046,8 +4041,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4084,14 +4084,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14217-2025</t>
+          <t>A 49175-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45740.58534722222</v>
+        <v>45938.3790162037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,8 +4103,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4141,14 +4146,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3021-2025</t>
+          <t>A 50474-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45678.57962962963</v>
+        <v>45945.36526620371</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4166,7 +4171,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4203,14 +4208,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36097-2021</t>
+          <t>A 11867-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44389</v>
+        <v>45376.45421296296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4222,13 +4227,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4265,14 +4265,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30378-2024</t>
+          <t>A 73151-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45491</v>
+        <v>44550.5162037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4322,14 +4322,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15905-2022</t>
+          <t>A 73194-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44664</v>
+        <v>44550.61508101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4379,14 +4379,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 61242-2022</t>
+          <t>A 54468-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44915</v>
+        <v>45965</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>45020</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4493,14 +4493,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11867-2024</t>
+          <t>A 20649-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45376.45421296296</v>
+        <v>44700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4512,8 +4512,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4550,14 +4555,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11876-2024</t>
+          <t>A 6059-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45376.47072916666</v>
+        <v>44599</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4570,7 +4575,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4607,14 +4612,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16142-2024</t>
+          <t>A 61225-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45406</v>
+        <v>44915</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4632,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4664,14 +4669,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 73151-2021</t>
+          <t>A 8528-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44550.5162037037</v>
+        <v>45355.49099537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4684,7 +4689,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4721,14 +4726,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 73194-2021</t>
+          <t>A 3686-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44550.61508101852</v>
+        <v>44586.57239583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4746,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4778,14 +4783,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45945-2025</t>
+          <t>A 35197-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45924</v>
+        <v>45530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4803,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4835,14 +4840,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49175-2025</t>
+          <t>A 9032-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45938.3790162037</v>
+        <v>44979</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,13 +4859,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20649-2022</t>
+          <t>A 25217-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44700</v>
+        <v>45462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4959,14 +4959,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50474-2025</t>
+          <t>A 16483-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45945.36526620371</v>
+        <v>45029</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4978,13 +4978,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5021,14 +5016,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 6059-2022</t>
+          <t>A 30622-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44599</v>
+        <v>45495</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5041,7 +5036,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5078,14 +5073,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61225-2022</t>
+          <t>A 61320-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44915</v>
+        <v>45646.33262731481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5097,8 +5092,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5135,14 +5135,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8528-2024</t>
+          <t>A 30925-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45355.49099537037</v>
+        <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5154,8 +5154,13 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5192,14 +5197,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3686-2022</t>
+          <t>A 45869-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44586.57239583333</v>
+        <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5212,7 +5217,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5249,14 +5254,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54468-2025</t>
+          <t>A 14217-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45965</v>
+        <v>45740.58534722222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5269,7 +5274,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5306,14 +5311,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35197-2024</t>
+          <t>A 61242-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45530</v>
+        <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5326,7 +5331,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5363,14 +5368,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9032-2023</t>
+          <t>A 11876-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44979</v>
+        <v>45376.47072916666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5383,7 +5388,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5420,14 +5425,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25217-2024</t>
+          <t>A 16142-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45462</v>
+        <v>45406</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5439,13 +5444,8 @@
           <t>BOTKYRKA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>

--- a/Översikt BOTKYRKA.xlsx
+++ b/Översikt BOTKYRKA.xlsx
@@ -575,7 +575,7 @@
         <v>44434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44930</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45936</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45995.45151620371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44727</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45922</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45995.43050925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45842</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45740.58291666667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>45078</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44938</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44586</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44354</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>44784</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>44433.62546296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44552</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44859.43993055556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>45406.56561342593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>45406.56984953704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44812</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>45481.47731481482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44550</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45491</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44664</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>45020</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>45740.57461805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45062</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45924</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45678.57962962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44389</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45938.3790162037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45945.36526620371</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>45376.45421296296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>44550.5162037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>44550.61508101852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>45965</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>45020</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44599</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44915</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45355.49099537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44586.57239583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44979</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>45462</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45029</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45495</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45646.33262731481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45113</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45740.58534722222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45376.47072916666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45406</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
